--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="190" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="17.86328125" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.057734483283377998</v>
+        <v>0.056033548096320121</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.31646119512213083</v>
+        <v>0.40312088999951418</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.055946859371410439</v>
+        <v>0.083988009950046294</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.030467585686944965</v>
+        <v>0.031200612844029342</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35094489284895919</v>
+        <v>0.22097121656698404</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.051798300097836876</v>
+        <v>0.079829303711251395</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.051113629591421766</v>
+        <v>0.03662998542337341</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.51265900142757348</v>
+        <v>0.3175151946015104</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="190" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="17.86328125" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.056033548096320121</v>
+        <v>0.056162696147666641</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.40312088999951418</v>
+        <v>0.48579507895945706</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.083988009950046294</v>
+        <v>0.07262684780040872</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031200612844029342</v>
+        <v>0.041585799737799654</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.22097121656698404</v>
+        <v>0.2206948521042785</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.079829303711251395</v>
+        <v>0.077034421117002455</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.03662998542337341</v>
+        <v>0.038972319652292191</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.3175151946015104</v>
+        <v>0.33260624224759788</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="323" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="17.86328125" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.056162696147666641</v>
+        <v>0.056277083820256299</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.48579507895945706</v>
+        <v>0.39324176052405535</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.07262684780040872</v>
+        <v>0.089181044748272903</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.041585799737799654</v>
+        <v>0.040169102048886497</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.2206948521042785</v>
+        <v>0.22796956881529523</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.077034421117002455</v>
+        <v>0.078764609572633051</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.038972319652292191</v>
+        <v>0.039446461688174221</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.33260624224759788</v>
+        <v>0.31866218734729757</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="323" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="399" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="399" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="475" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="475" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="494" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="494" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.056277083820256299</v>
+        <v>0.013315305999535225</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.39324176052405535</v>
+        <v>0.073819035627262664</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.089181044748272903</v>
+        <v>0.029670863717644842</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.040169102048886497</v>
+        <v>0.018931464752434613</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.22796956881529523</v>
+        <v>0.26403725212990764</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.078764609572633051</v>
+        <v>0.085392997239621141</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.039446461688174221</v>
+        <v>0.023448441112473167</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.31866218734729757</v>
+        <v>0.3214577998636674</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="76" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="171" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="171" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="247" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="418" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="418" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="57" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="437" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.013315305999535225</v>
+        <v>0.028050665557822596</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.073819035627262664</v>
+        <v>0.096107658958173817</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.029670863717644842</v>
+        <v>0.025315213199277313</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.018931464752434613</v>
+        <v>0.015980769675693788</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.26403725212990764</v>
+        <v>0.17568264522044674</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.085392997239621141</v>
+        <v>0.079435924539039637</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.023448441112473167</v>
+        <v>0.047786926355068239</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.3214577998636674</v>
+        <v>0.27432583198020782</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="437" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="513" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="17.86328125" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.028050665557822596</v>
+        <v>0.058096683406237741</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.096107658958173817</v>
+        <v>0.30513133284389943</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.025315213199277313</v>
+        <v>0.072162732230906912</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.015980769675693788</v>
+        <v>0.078601023394567565</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.17568264522044674</v>
+        <v>0.21138832019054868</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.079435924539039637</v>
+        <v>0.091636199191655707</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.047786926355068239</v>
+        <v>0.05184746191656199</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.27432583198020782</v>
+        <v>0.32902165151211615</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="513" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="589" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.058096683406237741</v>
+        <v>0.018732226443129225</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.30513133284389943</v>
+        <v>0.35986962862174543</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.072162732230906912</v>
+        <v>0.039917264072508743</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.078601023394567565</v>
+        <v>0.026451222506905046</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21138832019054868</v>
+        <v>0.20013670765741629</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.091636199191655707</v>
+        <v>0.09948948578606906</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.05184746191656199</v>
+        <v>0.074276870779316856</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.32902165151211615</v>
+        <v>0.44878842064803892</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="589" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="19" uniqueCount="12">
   <si>
     <t>Operation phase</t>
   </si>
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="17.86328125" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.018732226443129225</v>
+        <v>0.02786632362762001</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.35986962862174543</v>
+        <v>0.11523863538979752</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.039917264072508743</v>
+        <v>0.097734540902479267</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.026451222506905046</v>
+        <v>0.041750894314534381</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.20013670765741629</v>
+        <v>0.21085593419090098</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.09948948578606906</v>
+        <v>0.19900953139786906</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.074276870779316856</v>
+        <v>0.069910496810435388</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.44878842064803892</v>
+        <v>0.44772842357336207</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.02786632362762001</v>
+        <v>0.022961123942673686</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.11523863538979752</v>
+        <v>0.13100861321262741</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.097734540902479267</v>
+        <v>0.10966941863989707</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.041750894314534381</v>
+        <v>0.031739309075173007</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.21085593419090098</v>
+        <v>0.24697397787159978</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.19900953139786906</v>
+        <v>0.12417711935984306</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.069910496810435388</v>
+        <v>0.019206265986033866</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.44772842357336207</v>
+        <v>0.36450065340845694</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="17.86328125" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.022961123942673686</v>
+        <v>0.03403972726862195</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.13100861321262741</v>
+        <v>0.25977738384266158</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.10966941863989707</v>
+        <v>0.018982081937515962</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031739309075173007</v>
+        <v>0.031488317742870427</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.24697397787159978</v>
+        <v>0.3516024905798032</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.12417711935984306</v>
+        <v>0.020017272644329322</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.019206265986033866</v>
+        <v>0.032667304614166892</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.36450065340845694</v>
+        <v>0.10700075746217552</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24" customWidth="true"/>
-    <col min="2" max="2" width="17.86328125" customWidth="true"/>
-    <col min="3" max="3" width="4.73046875" customWidth="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="true"/>
+    <col min="2" max="2" width="19.42578125" customWidth="true"/>
+    <col min="3" max="3" width="4.85546875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.03403972726862195</v>
+        <v>0.034050558016224738</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.25977738384266158</v>
+        <v>0.25968757440511547</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.018982081937515962</v>
+        <v>0.019355117390835033</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031488317742870427</v>
+        <v>0.031790066043130345</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3516024905798032</v>
+        <v>0.35995806845284828</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.020017272644329322</v>
+        <v>0.019755766593551563</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032667304614166892</v>
+        <v>0.032655044014211765</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10700075746217552</v>
+        <v>0.10771571858997521</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -100,9 +100,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="true"/>
-    <col min="2" max="2" width="19.42578125" customWidth="true"/>
-    <col min="3" max="3" width="4.85546875" customWidth="true"/>
+    <col min="1" max="1" width="24" customWidth="true"/>
+    <col min="2" max="2" width="17.86328125" customWidth="true"/>
+    <col min="3" max="3" width="4.73046875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.034050558016224738</v>
+        <v>0.03403972726862195</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.25968757440511547</v>
+        <v>0.25977738384266158</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.019355117390835033</v>
+        <v>0.018982081937515962</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031790066043130345</v>
+        <v>0.031488317742870427</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35995806845284828</v>
+        <v>0.3516024905798032</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.019755766593551563</v>
+        <v>0.020017272644329322</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032655044014211765</v>
+        <v>0.032667304614166892</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10771571858997521</v>
+        <v>0.10700075746217552</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>

--- a/Graphs/normal mass flow rate details.xlsx
+++ b/Graphs/normal mass flow rate details.xlsx
@@ -121,7 +121,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="0">
-        <v>0.03403972726862195</v>
+        <v>0.022961123942673686</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>11</v>
@@ -132,7 +132,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="0">
-        <v>0.25977738384266158</v>
+        <v>0.13100861321262741</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>11</v>
@@ -143,7 +143,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="0">
-        <v>0.018982081937515962</v>
+        <v>0.10966941863989707</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>11</v>
@@ -154,7 +154,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="0">
-        <v>0.031488317742870427</v>
+        <v>0.031739309075173007</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>11</v>
@@ -165,7 +165,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="0">
-        <v>0.3516024905798032</v>
+        <v>0.24697397787159978</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>11</v>
@@ -176,7 +176,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="0">
-        <v>0.020017272644329322</v>
+        <v>0.12417711935984306</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>11</v>
@@ -187,7 +187,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="0">
-        <v>0.032667304614166892</v>
+        <v>0.019206265986033866</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>11</v>
@@ -198,7 +198,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="0">
-        <v>0.10700075746217552</v>
+        <v>0.36450065340845694</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
